--- a/doc/SafetySystem.xlsx
+++ b/doc/SafetySystem.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDBEF55-DEB2-4296-B491-9412F676CCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1590" yWindow="1260" windowWidth="25935" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,7 +435,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Ellipse 1"/>
+        <xdr:cNvPr id="2" name="Ellipse 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -488,7 +495,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Ellipse 2"/>
+        <xdr:cNvPr id="3" name="Ellipse 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -542,7 +555,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Ellipse 3"/>
+        <xdr:cNvPr id="4" name="Ellipse 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -596,7 +615,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Ellipse 4"/>
+        <xdr:cNvPr id="5" name="Ellipse 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -650,7 +675,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Ellipse 5"/>
+        <xdr:cNvPr id="6" name="Ellipse 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -704,7 +735,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Ellipse 6"/>
+        <xdr:cNvPr id="7" name="Ellipse 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -758,7 +795,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Ellipse 7"/>
+        <xdr:cNvPr id="8" name="Ellipse 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -812,7 +855,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Ellipse 8"/>
+        <xdr:cNvPr id="9" name="Ellipse 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -866,7 +915,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Gerade Verbindung mit Pfeil 11"/>
+        <xdr:cNvPr id="12" name="Gerade Verbindung mit Pfeil 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -913,7 +968,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13"/>
+        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -960,7 +1021,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Gerade Verbindung mit Pfeil 14"/>
+        <xdr:cNvPr id="15" name="Gerade Verbindung mit Pfeil 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1007,7 +1074,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Gerade Verbindung mit Pfeil 16"/>
+        <xdr:cNvPr id="17" name="Gerade Verbindung mit Pfeil 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1054,7 +1127,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Gerade Verbindung mit Pfeil 17"/>
+        <xdr:cNvPr id="18" name="Gerade Verbindung mit Pfeil 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1101,7 +1180,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Gerade Verbindung mit Pfeil 20"/>
+        <xdr:cNvPr id="21" name="Gerade Verbindung mit Pfeil 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1148,7 +1233,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Gerade Verbindung mit Pfeil 22"/>
+        <xdr:cNvPr id="23" name="Gerade Verbindung mit Pfeil 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1195,7 +1286,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Gerade Verbindung mit Pfeil 23"/>
+        <xdr:cNvPr id="24" name="Gerade Verbindung mit Pfeil 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1242,7 +1339,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Ellipse 24"/>
+        <xdr:cNvPr id="25" name="Ellipse 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1296,7 +1399,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Gerade Verbindung mit Pfeil 26"/>
+        <xdr:cNvPr id="27" name="Gerade Verbindung mit Pfeil 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1343,7 +1452,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Ellipse 27"/>
+        <xdr:cNvPr id="28" name="Ellipse 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1397,7 +1512,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Gerade Verbindung mit Pfeil 28"/>
+        <xdr:cNvPr id="29" name="Gerade Verbindung mit Pfeil 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1444,7 +1565,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Ellipse 30"/>
+        <xdr:cNvPr id="31" name="Ellipse 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1498,7 +1625,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Gerade Verbindung mit Pfeil 31"/>
+        <xdr:cNvPr id="32" name="Gerade Verbindung mit Pfeil 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1545,7 +1678,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Ellipse 34"/>
+        <xdr:cNvPr id="35" name="Ellipse 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1599,7 +1738,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Gerade Verbindung mit Pfeil 35"/>
+        <xdr:cNvPr id="36" name="Gerade Verbindung mit Pfeil 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1646,7 +1791,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Ellipse 37"/>
+        <xdr:cNvPr id="38" name="Ellipse 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1700,7 +1851,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Ellipse 38"/>
+        <xdr:cNvPr id="39" name="Ellipse 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1754,7 +1911,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Ellipse 39"/>
+        <xdr:cNvPr id="40" name="Ellipse 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1808,7 +1971,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Ellipse 40"/>
+        <xdr:cNvPr id="41" name="Ellipse 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1862,7 +2031,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Ellipse 41"/>
+        <xdr:cNvPr id="42" name="Ellipse 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1916,7 +2091,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Ellipse 42"/>
+        <xdr:cNvPr id="43" name="Ellipse 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1970,7 +2151,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Ellipse 43"/>
+        <xdr:cNvPr id="44" name="Ellipse 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2024,7 +2211,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Ellipse 44"/>
+        <xdr:cNvPr id="45" name="Ellipse 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2078,7 +2271,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Gerade Verbindung mit Pfeil 45"/>
+        <xdr:cNvPr id="46" name="Gerade Verbindung mit Pfeil 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2125,7 +2324,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Gerade Verbindung mit Pfeil 47"/>
+        <xdr:cNvPr id="48" name="Gerade Verbindung mit Pfeil 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2172,7 +2377,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Gerade Verbindung mit Pfeil 49"/>
+        <xdr:cNvPr id="50" name="Gerade Verbindung mit Pfeil 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2219,7 +2430,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Gerade Verbindung mit Pfeil 52"/>
+        <xdr:cNvPr id="53" name="Gerade Verbindung mit Pfeil 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2266,7 +2483,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Gerade Verbindung mit Pfeil 54"/>
+        <xdr:cNvPr id="55" name="Gerade Verbindung mit Pfeil 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2313,7 +2536,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="Gerade Verbindung mit Pfeil 56"/>
+        <xdr:cNvPr id="57" name="Gerade Verbindung mit Pfeil 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2360,7 +2589,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="Gerade Verbindung mit Pfeil 59"/>
+        <xdr:cNvPr id="60" name="Gerade Verbindung mit Pfeil 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2407,7 +2642,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="Gerade Verbindung mit Pfeil 61"/>
+        <xdr:cNvPr id="62" name="Gerade Verbindung mit Pfeil 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2454,7 +2695,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Ellipse 63"/>
+        <xdr:cNvPr id="64" name="Ellipse 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2508,7 +2755,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Gerade Verbindung mit Pfeil 64"/>
+        <xdr:cNvPr id="65" name="Gerade Verbindung mit Pfeil 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2555,7 +2808,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Ellipse 66"/>
+        <xdr:cNvPr id="67" name="Ellipse 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2609,7 +2868,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="Gerade Verbindung mit Pfeil 67"/>
+        <xdr:cNvPr id="68" name="Gerade Verbindung mit Pfeil 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2656,7 +2921,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Ellipse 69"/>
+        <xdr:cNvPr id="70" name="Ellipse 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2710,7 +2981,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="Gerade Verbindung mit Pfeil 70"/>
+        <xdr:cNvPr id="71" name="Gerade Verbindung mit Pfeil 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2757,7 +3034,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Ellipse 72"/>
+        <xdr:cNvPr id="73" name="Ellipse 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2811,7 +3094,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Gerade Verbindung mit Pfeil 73"/>
+        <xdr:cNvPr id="74" name="Gerade Verbindung mit Pfeil 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2858,7 +3147,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="Abgerundetes Rechteck 75"/>
+        <xdr:cNvPr id="76" name="Abgerundetes Rechteck 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2912,7 +3207,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="Ellipse 77"/>
+        <xdr:cNvPr id="78" name="Ellipse 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2966,7 +3267,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="Gerade Verbindung mit Pfeil 78"/>
+        <xdr:cNvPr id="79" name="Gerade Verbindung mit Pfeil 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3013,7 +3320,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="Gerade Verbindung mit Pfeil 80"/>
+        <xdr:cNvPr id="81" name="Gerade Verbindung mit Pfeil 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3310,11 +3623,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AM1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ17" sqref="AQ17"/>
+      <selection sqref="A1:AM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4402,7 +4718,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>